--- a/biology/Zoologie/Lasius_chambonensis/Lasius_chambonensis.xlsx
+++ b/biology/Zoologie/Lasius_chambonensis/Lasius_chambonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lasius chambonensis est une espèce fossile d'insectes hyménoptères fourmi du genre Lasius.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Lasius chambonensis est décrite en 1935 par le paléontologue français Nicolas Théobald (1903-1981)[1],[2]. 
-Fossiles
-L'holotype R07245 ♂, de l'ère Cénozoïque, et des époques Pliocène et Pléistocène (8,7 à 1,806 Ma.) vient de la collection Piton du Muséum national d'histoire naturelle de Paris[3] et des cinérites du lac Chambon dans le Puy-de-Dôme[1].
-Citation
-Cette espèce a aussi été citée en 1976 par C. Civet[4],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lasius chambonensis est décrite en 1935 par le paléontologue français Nicolas Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -543,15 +553,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R07245 ♂, de l'ère Cénozoïque, et des époques Pliocène et Pléistocène (8,7 à 1,806 Ma.) vient de la collection Piton du Muséum national d'histoire naturelle de Paris et des cinérites du lac Chambon dans le Puy-de-Dôme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lasius_chambonensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lasius_chambonensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Citation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a aussi été citée en 1976 par C. Civet,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lasius_chambonensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lasius_chambonensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-L'échantillon est une aile antérieure, hyaline, à nervures assez bien conservées, d'une longueur de 8,5 mm et de 3,3 mm de largeur.
-Affinités
-Par la disposition des nervures, la forme subpentagonale, elle est identique à Lasius crispus N. THÉOBALD de Joursac, mais elle s'en distingue par ses nervures non crêpues et une taille plus petite.[1].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échantillon est une aile antérieure, hyaline, à nervures assez bien conservées, d'une longueur de 8,5 mm et de 3,3 mm de largeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lasius_chambonensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lasius_chambonensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par la disposition des nervures, la forme subpentagonale, elle est identique à Lasius crispus N. THÉOBALD de Joursac, mais elle s'en distingue par ses nervures non crêpues et une taille plus petite..
 </t>
         </is>
       </c>
